--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-3.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-3.xlsx
@@ -12,8 +12,8 @@
     <sheet name="_input" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="cnt_name" localSheetId="2">OFFSET(_input!$D10,0,0,COUNTA(_input!$A:$A)-2, 1)</definedName>
-    <definedName name="status_name" localSheetId="2">OFFSET(_input!$C10,0,0,COUNTA(_input!$A:$A)-2, 1)</definedName>
+    <definedName name="cnt_name" localSheetId="2">OFFSET(_input!$B3,0,0,COUNTA(_input!$A:$A)-3, 1)</definedName>
+    <definedName name="status_name" localSheetId="2">OFFSET(_input!$A3,0,0,COUNTA(_input!$A:$A)-3, 1)</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,14 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日访问量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dummy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>provided</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,6 +170,14 @@
   </si>
   <si>
     <t>competCustIds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -382,7 +378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,12 +425,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -660,40 +650,34 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>_input!$D$9</c:f>
+              <c:f>_input!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>今日访问量</c:v>
+                  <c:v>点击量</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>_input!$C$10:$C$11</c:f>
+              <c:f>_input!status_name</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>-</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>其他</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>_input!$D$10:$D$11</c:f>
+              <c:f>_input!cnt_name</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -736,15 +720,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76198</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>19047</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1067,7 +1051,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:D16"/>
+  <dimension ref="D1:I23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,53 +1065,61 @@
     <col min="6" max="6" width="1.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:4" ht="3" customHeight="1">
+    <row r="1" spans="4:9" ht="3" customHeight="1">
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="4:4">
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="4:9">
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="4:4">
+    <row r="3" spans="4:9">
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="4:4">
+    <row r="4" spans="4:9">
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="4:4">
+    <row r="5" spans="4:9">
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="4:4">
+    <row r="6" spans="4:9">
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="4:4">
+    <row r="7" spans="4:9">
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="4:4">
+    <row r="8" spans="4:9">
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="4:4">
+    <row r="9" spans="4:9">
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="4:4">
+    <row r="10" spans="4:9">
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="4:4">
+    <row r="11" spans="4:9">
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="4:4">
+    <row r="12" spans="4:9">
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="4:9">
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="4:9">
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" spans="4:9">
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" spans="4:9">
       <c r="D16" s="5"/>
+    </row>
+    <row r="23" spans="9:9">
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1161,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1169,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1177,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1193,7 +1185,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1221,106 +1213,106 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="19" t="s">
-        <v>22</v>
+      <c r="D11" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="D12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="23"/>
+      <c r="B15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="25"/>
-      <c r="B15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="17" t="str">
         <f>"CS饼图_"</f>
         <v>CS饼图_</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="7"/>
     </row>
   </sheetData>
@@ -1339,7 +1331,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1347,74 +1339,35 @@
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:2" ht="18" customHeight="1">
       <c r="A1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" thickBot="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.25" thickBot="1">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" thickBot="1">
+      <c r="A3" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A3" t="s">
-        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>12</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="E3" s="16">
-        <f>$B4-$B3</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    </row>
+    <row r="4" spans="1:2" ht="14.25" thickBot="1">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" thickBot="1">
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" thickBot="1">
-      <c r="C10" s="17" t="str">
-        <f>$A3</f>
-        <v>-</v>
-      </c>
-      <c r="D10" s="3">
-        <f>$B3</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1">
-      <c r="C11" s="17" t="str">
-        <f>$E2</f>
-        <v>其他</v>
-      </c>
-      <c r="D11" s="3">
-        <f>$E3</f>
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-3.xlsx
+++ b/rill-analysis/rill-analysis-report/src/test/resources/ka-cs-pie-3.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,7 +1114,7 @@
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
